--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,25 +528,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.127847</v>
+        <v>0.395025</v>
       </c>
       <c r="H2">
-        <v>0.383541</v>
+        <v>1.185075</v>
       </c>
       <c r="I2">
-        <v>0.1362709038893634</v>
+        <v>0.3036775717171841</v>
       </c>
       <c r="J2">
-        <v>0.1362709038893634</v>
+        <v>0.3036775717171841</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1424186666666667</v>
+        <v>0.186429</v>
       </c>
       <c r="N2">
-        <v>0.427256</v>
+        <v>0.559287</v>
       </c>
       <c r="O2">
-        <v>0.007567621259309592</v>
+        <v>0.01359699887591802</v>
       </c>
       <c r="P2">
-        <v>0.007567621259309593</v>
+        <v>0.01359699887591802</v>
       </c>
       <c r="Q2">
-        <v>0.01820779927733334</v>
+        <v>0.07364411572499999</v>
       </c>
       <c r="R2">
-        <v>0.163870193496</v>
+        <v>0.6627970415249999</v>
       </c>
       <c r="S2">
-        <v>0.001031246589298481</v>
+        <v>0.004129103601280067</v>
       </c>
       <c r="T2">
-        <v>0.001031246589298481</v>
+        <v>0.004129103601280067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.395025</v>
+      </c>
+      <c r="H3">
+        <v>1.185075</v>
+      </c>
+      <c r="I3">
+        <v>0.3036775717171841</v>
+      </c>
+      <c r="J3">
+        <v>0.3036775717171841</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.127847</v>
-      </c>
-      <c r="H3">
-        <v>0.383541</v>
-      </c>
-      <c r="I3">
-        <v>0.1362709038893634</v>
-      </c>
-      <c r="J3">
-        <v>0.1362709038893634</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.186429</v>
+        <v>0.3573546666666667</v>
       </c>
       <c r="N3">
-        <v>0.559287</v>
+        <v>1.072064</v>
       </c>
       <c r="O3">
-        <v>0.009906173795699729</v>
+        <v>0.02606327878694155</v>
       </c>
       <c r="P3">
-        <v>0.009906173795699731</v>
+        <v>0.02606327878694155</v>
       </c>
       <c r="Q3">
-        <v>0.023834388363</v>
+        <v>0.1411640272</v>
       </c>
       <c r="R3">
-        <v>0.214509495267</v>
+        <v>1.2704762448</v>
       </c>
       <c r="S3">
-        <v>0.001349923257225128</v>
+        <v>0.007914833213006407</v>
       </c>
       <c r="T3">
-        <v>0.001349923257225128</v>
+        <v>0.007914833213006407</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.127847</v>
+        <v>0.395025</v>
       </c>
       <c r="H4">
-        <v>0.383541</v>
+        <v>1.185075</v>
       </c>
       <c r="I4">
-        <v>0.1362709038893634</v>
+        <v>0.3036775717171841</v>
       </c>
       <c r="J4">
-        <v>0.1362709038893634</v>
+        <v>0.3036775717171841</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2698976666666666</v>
+        <v>13.16725666666667</v>
       </c>
       <c r="N4">
-        <v>0.809693</v>
+        <v>39.50177</v>
       </c>
       <c r="O4">
-        <v>0.01434140178327317</v>
+        <v>0.9603397223371405</v>
       </c>
       <c r="P4">
-        <v>0.01434140178327317</v>
+        <v>0.9603397223371404</v>
       </c>
       <c r="Q4">
-        <v>0.03450560699033334</v>
+        <v>5.201395564749999</v>
       </c>
       <c r="R4">
-        <v>0.310550462913</v>
+        <v>46.81256008275</v>
       </c>
       <c r="S4">
-        <v>0.001954315784047164</v>
+        <v>0.2916336349028977</v>
       </c>
       <c r="T4">
-        <v>0.001954315784047163</v>
+        <v>0.2916336349028976</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.127847</v>
+        <v>0.4826293333333333</v>
       </c>
       <c r="H5">
-        <v>0.383541</v>
+        <v>1.447888</v>
       </c>
       <c r="I5">
-        <v>0.1362709038893634</v>
+        <v>0.3710238693402952</v>
       </c>
       <c r="J5">
-        <v>0.1362709038893634</v>
+        <v>0.3710238693402951</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>18.22073066666667</v>
+        <v>0.186429</v>
       </c>
       <c r="N5">
-        <v>54.662192</v>
+        <v>0.559287</v>
       </c>
       <c r="O5">
-        <v>0.9681848031617175</v>
+        <v>0.01359699887591802</v>
       </c>
       <c r="P5">
-        <v>0.9681848031617175</v>
+        <v>0.01359699887591802</v>
       </c>
       <c r="Q5">
-        <v>2.329465753541334</v>
+        <v>0.08997610398399998</v>
       </c>
       <c r="R5">
-        <v>20.965191781872</v>
+        <v>0.8097849358559999</v>
       </c>
       <c r="S5">
-        <v>0.1319354182587927</v>
+        <v>0.005044811134358749</v>
       </c>
       <c r="T5">
-        <v>0.1319354182587927</v>
+        <v>0.005044811134358748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,40 +791,40 @@
         <v>1.447888</v>
       </c>
       <c r="I6">
-        <v>0.5144300257092791</v>
+        <v>0.3710238693402952</v>
       </c>
       <c r="J6">
-        <v>0.514430025709279</v>
+        <v>0.3710238693402951</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1424186666666667</v>
+        <v>0.3573546666666667</v>
       </c>
       <c r="N6">
-        <v>0.427256</v>
+        <v>1.072064</v>
       </c>
       <c r="O6">
-        <v>0.007567621259309592</v>
+        <v>0.02606327878694155</v>
       </c>
       <c r="P6">
-        <v>0.007567621259309593</v>
+        <v>0.02606327878694155</v>
       </c>
       <c r="Q6">
-        <v>0.06873542614755555</v>
+        <v>0.1724698445368889</v>
       </c>
       <c r="R6">
-        <v>0.618618835328</v>
+        <v>1.552228600832</v>
       </c>
       <c r="S6">
-        <v>0.00389301159898472</v>
+        <v>0.00967009854322589</v>
       </c>
       <c r="T6">
-        <v>0.00389301159898472</v>
+        <v>0.009670098543225888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,45 +853,45 @@
         <v>1.447888</v>
       </c>
       <c r="I7">
-        <v>0.5144300257092791</v>
+        <v>0.3710238693402952</v>
       </c>
       <c r="J7">
-        <v>0.514430025709279</v>
+        <v>0.3710238693402951</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.186429</v>
+        <v>13.16725666666667</v>
       </c>
       <c r="N7">
-        <v>0.559287</v>
+        <v>39.50177</v>
       </c>
       <c r="O7">
-        <v>0.009906173795699729</v>
+        <v>0.9603397223371405</v>
       </c>
       <c r="P7">
-        <v>0.009906173795699731</v>
+        <v>0.9603397223371404</v>
       </c>
       <c r="Q7">
-        <v>0.08997610398399998</v>
+        <v>6.354904306862222</v>
       </c>
       <c r="R7">
-        <v>0.8097849358559999</v>
+        <v>57.19413876175999</v>
       </c>
       <c r="S7">
-        <v>0.005096033240402398</v>
+        <v>0.3563089596627106</v>
       </c>
       <c r="T7">
-        <v>0.005096033240402398</v>
+        <v>0.3563089596627105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,51 +909,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4826293333333333</v>
+        <v>0.2111326666666666</v>
       </c>
       <c r="H8">
-        <v>1.447888</v>
+        <v>0.6333979999999999</v>
       </c>
       <c r="I8">
-        <v>0.5144300257092791</v>
+        <v>0.1623093614923283</v>
       </c>
       <c r="J8">
-        <v>0.514430025709279</v>
+        <v>0.1623093614923283</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2698976666666666</v>
+        <v>0.186429</v>
       </c>
       <c r="N8">
-        <v>0.809693</v>
+        <v>0.559287</v>
       </c>
       <c r="O8">
-        <v>0.01434140178327317</v>
+        <v>0.01359699887591802</v>
       </c>
       <c r="P8">
-        <v>0.01434140178327317</v>
+        <v>0.01359699887591802</v>
       </c>
       <c r="Q8">
-        <v>0.1302605309315555</v>
+        <v>0.03936125191399999</v>
       </c>
       <c r="R8">
-        <v>1.172344778384</v>
+        <v>0.3542512672259999</v>
       </c>
       <c r="S8">
-        <v>0.007377647688076318</v>
+        <v>0.00220692020576216</v>
       </c>
       <c r="T8">
-        <v>0.007377647688076317</v>
+        <v>0.00220692020576216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,46 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4826293333333333</v>
+        <v>0.2111326666666666</v>
       </c>
       <c r="H9">
-        <v>1.447888</v>
+        <v>0.6333979999999999</v>
       </c>
       <c r="I9">
-        <v>0.5144300257092791</v>
+        <v>0.1623093614923283</v>
       </c>
       <c r="J9">
-        <v>0.514430025709279</v>
+        <v>0.1623093614923283</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>18.22073066666667</v>
+        <v>0.3573546666666667</v>
       </c>
       <c r="N9">
-        <v>54.662192</v>
+        <v>1.072064</v>
       </c>
       <c r="O9">
-        <v>0.9681848031617175</v>
+        <v>0.02606327878694155</v>
       </c>
       <c r="P9">
-        <v>0.9681848031617175</v>
+        <v>0.02606327878694155</v>
       </c>
       <c r="Q9">
-        <v>8.793859094499556</v>
+        <v>0.0754492437191111</v>
       </c>
       <c r="R9">
-        <v>79.144731850496</v>
+        <v>0.6790431934719999</v>
       </c>
       <c r="S9">
-        <v>0.4980633331818157</v>
+        <v>0.004230314138305029</v>
       </c>
       <c r="T9">
-        <v>0.4980633331818156</v>
+        <v>0.004230314138305029</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,51 +1033,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.176762</v>
+        <v>0.2111326666666666</v>
       </c>
       <c r="H10">
-        <v>0.530286</v>
+        <v>0.6333979999999999</v>
       </c>
       <c r="I10">
-        <v>0.1884089381314513</v>
+        <v>0.1623093614923283</v>
       </c>
       <c r="J10">
-        <v>0.1884089381314513</v>
+        <v>0.1623093614923283</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1424186666666667</v>
+        <v>13.16725666666667</v>
       </c>
       <c r="N10">
-        <v>0.427256</v>
+        <v>39.50177</v>
       </c>
       <c r="O10">
-        <v>0.007567621259309592</v>
+        <v>0.9603397223371405</v>
       </c>
       <c r="P10">
-        <v>0.007567621259309593</v>
+        <v>0.9603397223371404</v>
       </c>
       <c r="Q10">
-        <v>0.02517420835733333</v>
+        <v>2.780038012717777</v>
       </c>
       <c r="R10">
-        <v>0.226567875216</v>
+        <v>25.02034211446</v>
       </c>
       <c r="S10">
-        <v>0.001425807485647517</v>
+        <v>0.1558721271482612</v>
       </c>
       <c r="T10">
-        <v>0.001425807485647517</v>
+        <v>0.1558721271482611</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.176762</v>
+        <v>0.212017</v>
       </c>
       <c r="H11">
-        <v>0.530286</v>
+        <v>0.6360509999999999</v>
       </c>
       <c r="I11">
-        <v>0.1884089381314513</v>
+        <v>0.1629891974501924</v>
       </c>
       <c r="J11">
-        <v>0.1884089381314513</v>
+        <v>0.1629891974501923</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,27 +1119,27 @@
         <v>0.559287</v>
       </c>
       <c r="O11">
-        <v>0.009906173795699729</v>
+        <v>0.01359699887591802</v>
       </c>
       <c r="P11">
-        <v>0.009906173795699731</v>
+        <v>0.01359699887591802</v>
       </c>
       <c r="Q11">
-        <v>0.032953562898</v>
+        <v>0.03952611729299999</v>
       </c>
       <c r="R11">
-        <v>0.296582066082</v>
+        <v>0.3557350556369999</v>
       </c>
       <c r="S11">
-        <v>0.001866411685793395</v>
+        <v>0.002216163934517046</v>
       </c>
       <c r="T11">
-        <v>0.001866411685793395</v>
+        <v>0.002216163934517046</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.176762</v>
+        <v>0.212017</v>
       </c>
       <c r="H12">
-        <v>0.530286</v>
+        <v>0.6360509999999999</v>
       </c>
       <c r="I12">
-        <v>0.1884089381314513</v>
+        <v>0.1629891974501924</v>
       </c>
       <c r="J12">
-        <v>0.1884089381314513</v>
+        <v>0.1629891974501923</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,33 +1175,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2698976666666666</v>
+        <v>0.3573546666666667</v>
       </c>
       <c r="N12">
-        <v>0.809693</v>
+        <v>1.072064</v>
       </c>
       <c r="O12">
-        <v>0.01434140178327317</v>
+        <v>0.02606327878694155</v>
       </c>
       <c r="P12">
-        <v>0.01434140178327317</v>
+        <v>0.02606327878694155</v>
       </c>
       <c r="Q12">
-        <v>0.04770765135533333</v>
+        <v>0.07576526436266667</v>
       </c>
       <c r="R12">
-        <v>0.429368862198</v>
+        <v>0.681887379264</v>
       </c>
       <c r="S12">
-        <v>0.002702048281303</v>
+        <v>0.004248032892404227</v>
       </c>
       <c r="T12">
-        <v>0.002702048281303</v>
+        <v>0.004248032892404226</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.176762</v>
+        <v>0.212017</v>
       </c>
       <c r="H13">
-        <v>0.530286</v>
+        <v>0.6360509999999999</v>
       </c>
       <c r="I13">
-        <v>0.1884089381314513</v>
+        <v>0.1629891974501924</v>
       </c>
       <c r="J13">
-        <v>0.1884089381314513</v>
+        <v>0.1629891974501923</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.22073066666667</v>
+        <v>13.16725666666667</v>
       </c>
       <c r="N13">
-        <v>54.662192</v>
+        <v>39.50177</v>
       </c>
       <c r="O13">
-        <v>0.9681848031617175</v>
+        <v>0.9603397223371405</v>
       </c>
       <c r="P13">
-        <v>0.9681848031617175</v>
+        <v>0.9603397223371404</v>
       </c>
       <c r="Q13">
-        <v>3.220732794101334</v>
+        <v>2.791682256696666</v>
       </c>
       <c r="R13">
-        <v>28.98659514691201</v>
+        <v>25.12514031027</v>
       </c>
       <c r="S13">
-        <v>0.1824146706787074</v>
+        <v>0.1565250006232711</v>
       </c>
       <c r="T13">
-        <v>0.1824146706787074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.1509443333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.452833</v>
-      </c>
-      <c r="I14">
-        <v>0.1608901322699062</v>
-      </c>
-      <c r="J14">
-        <v>0.1608901322699062</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.1424186666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.427256</v>
-      </c>
-      <c r="O14">
-        <v>0.007567621259309592</v>
-      </c>
-      <c r="P14">
-        <v>0.007567621259309593</v>
-      </c>
-      <c r="Q14">
-        <v>0.02149729069422222</v>
-      </c>
-      <c r="R14">
-        <v>0.193475616248</v>
-      </c>
-      <c r="S14">
-        <v>0.001217555585378875</v>
-      </c>
-      <c r="T14">
-        <v>0.001217555585378875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.1509443333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.452833</v>
-      </c>
-      <c r="I15">
-        <v>0.1608901322699062</v>
-      </c>
-      <c r="J15">
-        <v>0.1608901322699062</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.186429</v>
-      </c>
-      <c r="N15">
-        <v>0.559287</v>
-      </c>
-      <c r="O15">
-        <v>0.009906173795699729</v>
-      </c>
-      <c r="P15">
-        <v>0.009906173795699731</v>
-      </c>
-      <c r="Q15">
-        <v>0.028140401119</v>
-      </c>
-      <c r="R15">
-        <v>0.253263610071</v>
-      </c>
-      <c r="S15">
-        <v>0.001593805612278808</v>
-      </c>
-      <c r="T15">
-        <v>0.001593805612278809</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.1509443333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.452833</v>
-      </c>
-      <c r="I16">
-        <v>0.1608901322699062</v>
-      </c>
-      <c r="J16">
-        <v>0.1608901322699062</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.2698976666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.809693</v>
-      </c>
-      <c r="O16">
-        <v>0.01434140178327317</v>
-      </c>
-      <c r="P16">
-        <v>0.01434140178327317</v>
-      </c>
-      <c r="Q16">
-        <v>0.04073952336322222</v>
-      </c>
-      <c r="R16">
-        <v>0.366655710269</v>
-      </c>
-      <c r="S16">
-        <v>0.002307390029846689</v>
-      </c>
-      <c r="T16">
-        <v>0.002307390029846689</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.1509443333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.452833</v>
-      </c>
-      <c r="I17">
-        <v>0.1608901322699062</v>
-      </c>
-      <c r="J17">
-        <v>0.1608901322699062</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>18.22073066666667</v>
-      </c>
-      <c r="N17">
-        <v>54.662192</v>
-      </c>
-      <c r="O17">
-        <v>0.9681848031617175</v>
-      </c>
-      <c r="P17">
-        <v>0.9681848031617175</v>
-      </c>
-      <c r="Q17">
-        <v>2.750316043326223</v>
-      </c>
-      <c r="R17">
-        <v>24.752844389936</v>
-      </c>
-      <c r="S17">
-        <v>0.1557713810424018</v>
-      </c>
-      <c r="T17">
-        <v>0.1557713810424018</v>
+        <v>0.156525000623271</v>
       </c>
     </row>
   </sheetData>
